--- a/data/trans_orig/P36A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A60F592-4413-4796-A5B7-068053D1A162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D598704B-4CFC-4D94-9B67-258CA3620285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1351A826-5051-4494-A4C6-5CA03E6ECB32}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BC9D687F-2BBF-46FF-AD7F-A6493FC33DD5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="796">
   <si>
     <t>Población según la cantidad de agua que consumen al día en 2012 (Tasa respuesta: 98,62%)</t>
   </si>
@@ -76,2344 +76,2353 @@
     <t>29,08%</t>
   </si>
   <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
   </si>
   <si>
     <t>6,95%</t>
   </si>
   <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>De 1 litro y medio a 2 litros</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>De 1 litro a litro y medio</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>De medio a 1 litro</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>Menos de medio litro</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>No suelo beber agua</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la cantidad de agua que consumen al día en 2016 (Tasa respuesta: 98,13%)</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
     <t>3,16%</t>
   </si>
   <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>Población según la cantidad de agua que consumen al día en 2023 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
   </si>
   <si>
     <t>24,22%</t>
   </si>
   <si>
-    <t>De 1 litro y medio a 2 litros</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>De 1 litro a litro y medio</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>De medio a 1 litro</t>
-  </si>
-  <si>
-    <t>16,41%</t>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
   </si>
   <si>
     <t>10,4%</t>
   </si>
   <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>Menos de medio litro</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>No suelo beber agua</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la cantidad de agua que consumen al día en 2016 (Tasa respuesta: 98,13%)</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
   </si>
   <si>
     <t>24,53%</t>
   </si>
   <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>Población según la cantidad de agua que consumen al día en 2023 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
+    <t>2,18%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>2,42%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
   </si>
   <si>
     <t>2,34%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
+    <t>2,74%</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -2828,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1224C209-46B0-4DBE-8989-5A754B777B64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8444F4BE-C30C-42F7-99DD-814619E31898}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4035,7 +4044,7 @@
         <v>165</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -4044,13 +4053,13 @@
         <v>49068</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M25" s="7">
         <v>114</v>
@@ -4059,13 +4068,13 @@
         <v>127884</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4089,13 @@
         <v>162829</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H26" s="7">
         <v>126</v>
@@ -4095,13 +4104,13 @@
         <v>142352</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>274</v>
@@ -4110,13 +4119,13 @@
         <v>305181</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,13 +4140,13 @@
         <v>249407</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H27" s="7">
         <v>231</v>
@@ -4146,13 +4155,13 @@
         <v>257483</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M27" s="7">
         <v>464</v>
@@ -4161,13 +4170,13 @@
         <v>506889</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,13 +4191,13 @@
         <v>204829</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H28" s="7">
         <v>222</v>
@@ -4197,13 +4206,13 @@
         <v>242356</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M28" s="7">
         <v>404</v>
@@ -4212,13 +4221,13 @@
         <v>447186</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,13 +4242,13 @@
         <v>48908</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H29" s="7">
         <v>72</v>
@@ -4248,13 +4257,13 @@
         <v>76886</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M29" s="7">
         <v>117</v>
@@ -4263,13 +4272,13 @@
         <v>125794</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,7 +4299,7 @@
         <v>62</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -4305,7 +4314,7 @@
         <v>62</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -4320,7 +4329,7 @@
         <v>62</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,7 +4385,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4388,7 +4397,7 @@
         <v>168830</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>212</v>
@@ -4421,10 +4430,10 @@
         <v>217</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,13 +4448,13 @@
         <v>308074</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H33" s="7">
         <v>263</v>
@@ -4454,13 +4463,13 @@
         <v>278185</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M33" s="7">
         <v>558</v>
@@ -4469,10 +4478,10 @@
         <v>586259</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>227</v>
@@ -4765,10 +4774,10 @@
         <v>259</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>51</v>
+        <v>260</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M39" s="7">
         <v>848</v>
@@ -4777,13 +4786,13 @@
         <v>909230</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>263</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,13 +4807,13 @@
         <v>866757</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H40" s="7">
         <v>728</v>
@@ -4885,7 +4894,7 @@
         <v>279</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>280</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4900,13 +4909,13 @@
         <v>687479</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H42" s="7">
         <v>869</v>
@@ -4915,13 +4924,13 @@
         <v>937897</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M42" s="7">
         <v>1504</v>
@@ -4930,13 +4939,13 @@
         <v>1625376</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,13 +4960,13 @@
         <v>176521</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H43" s="7">
         <v>268</v>
@@ -4966,13 +4975,13 @@
         <v>291587</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M43" s="7">
         <v>439</v>
@@ -4981,13 +4990,13 @@
         <v>468108</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,7 +5017,7 @@
         <v>62</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -5023,7 +5032,7 @@
         <v>62</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -5038,7 +5047,7 @@
         <v>62</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,7 +5089,7 @@
         <v>6417</v>
       </c>
       <c r="N45" s="7">
-        <v>6891736</v>
+        <v>6891735</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>66</v>
@@ -5094,7 +5103,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -5115,7 +5124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9FCE77-C771-4AB0-8AAD-98E5686BC2CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AAC676-4E2D-4035-8729-5E9D37CE12C5}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5132,7 +5141,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5239,13 +5248,13 @@
         <v>34188</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5254,13 +5263,13 @@
         <v>20228</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M4" s="7">
         <v>50</v>
@@ -5269,13 +5278,13 @@
         <v>54416</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>310</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5290,13 +5299,13 @@
         <v>24928</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -5305,13 +5314,13 @@
         <v>24250</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M5" s="7">
         <v>49</v>
@@ -5323,10 +5332,10 @@
         <v>143</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5341,10 +5350,10 @@
         <v>38994</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>320</v>
@@ -5371,13 +5380,13 @@
         <v>76815</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,13 +5401,13 @@
         <v>12886</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -5407,13 +5416,13 @@
         <v>23207</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -5422,13 +5431,13 @@
         <v>36093</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5443,13 +5452,13 @@
         <v>5551</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -5458,13 +5467,13 @@
         <v>6906</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -5473,13 +5482,13 @@
         <v>12458</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>342</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5616,7 +5625,7 @@
         <v>349</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>350</v>
@@ -5628,13 +5637,13 @@
         <v>155730</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>69</v>
+        <v>351</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,10 +5658,10 @@
         <v>116919</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>354</v>
+        <v>129</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>355</v>
@@ -5667,10 +5676,10 @@
         <v>356</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M12" s="7">
         <v>243</v>
@@ -5679,13 +5688,13 @@
         <v>248433</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>359</v>
+        <v>242</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,13 +5709,13 @@
         <v>201734</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>91</v>
+        <v>360</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H13" s="7">
         <v>204</v>
@@ -5715,13 +5724,13 @@
         <v>208337</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M13" s="7">
         <v>401</v>
@@ -5730,13 +5739,13 @@
         <v>410071</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,13 +5760,13 @@
         <v>94473</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>239</v>
+        <v>368</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>126</v>
       </c>
       <c r="H14" s="7">
         <v>116</v>
@@ -5766,13 +5775,13 @@
         <v>116638</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>208</v>
@@ -5781,13 +5790,13 @@
         <v>211110</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,13 +5811,13 @@
         <v>26808</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H15" s="7">
         <v>38</v>
@@ -5817,13 +5826,13 @@
         <v>41091</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M15" s="7">
         <v>65</v>
@@ -5832,13 +5841,13 @@
         <v>67899</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,7 +5868,7 @@
         <v>62</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5957,13 +5966,13 @@
         <v>168352</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H18" s="7">
         <v>139</v>
@@ -5972,13 +5981,13 @@
         <v>143021</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M18" s="7">
         <v>291</v>
@@ -5987,13 +5996,13 @@
         <v>311372</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,13 +6017,13 @@
         <v>307752</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H19" s="7">
         <v>288</v>
@@ -6023,13 +6032,13 @@
         <v>309958</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M19" s="7">
         <v>573</v>
@@ -6041,10 +6050,10 @@
         <v>231</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,13 +6068,13 @@
         <v>332828</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H20" s="7">
         <v>332</v>
@@ -6074,13 +6083,13 @@
         <v>353034</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>406</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>407</v>
+        <v>46</v>
       </c>
       <c r="M20" s="7">
         <v>645</v>
@@ -6089,13 +6098,13 @@
         <v>685861</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>275</v>
+        <v>408</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,13 +6119,13 @@
         <v>140621</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H21" s="7">
         <v>156</v>
@@ -6125,13 +6134,13 @@
         <v>167175</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>69</v>
+        <v>414</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M21" s="7">
         <v>287</v>
@@ -6140,13 +6149,13 @@
         <v>307796</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>417</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6161,13 +6170,13 @@
         <v>41548</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -6176,13 +6185,13 @@
         <v>46078</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>421</v>
+        <v>327</v>
       </c>
       <c r="M22" s="7">
         <v>82</v>
@@ -6191,13 +6200,13 @@
         <v>87625</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6233,7 +6242,7 @@
         <v>62</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -6316,13 +6325,13 @@
         <v>87197</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>295</v>
+        <v>429</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="H25" s="7">
         <v>64</v>
@@ -6331,13 +6340,13 @@
         <v>67191</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="M25" s="7">
         <v>143</v>
@@ -6346,13 +6355,13 @@
         <v>154387</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>431</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>432</v>
+        <v>201</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6367,10 +6376,10 @@
         <v>192590</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>435</v>
+        <v>375</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>436</v>
@@ -6385,10 +6394,10 @@
         <v>437</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="M26" s="7">
         <v>380</v>
@@ -6397,13 +6406,13 @@
         <v>411221</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6418,13 +6427,13 @@
         <v>281887</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>444</v>
-      </c>
       <c r="G27" s="7" t="s">
-        <v>363</v>
+        <v>39</v>
       </c>
       <c r="H27" s="7">
         <v>269</v>
@@ -6433,13 +6442,13 @@
         <v>283839</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="M27" s="7">
         <v>527</v>
@@ -6448,13 +6457,13 @@
         <v>565726</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,13 +6478,13 @@
         <v>169519</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>451</v>
+        <v>97</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H28" s="7">
         <v>162</v>
@@ -6484,13 +6493,13 @@
         <v>174219</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M28" s="7">
         <v>317</v>
@@ -6499,13 +6508,13 @@
         <v>343738</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6520,13 +6529,13 @@
         <v>24000</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
@@ -6535,13 +6544,13 @@
         <v>30552</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>338</v>
+        <v>461</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>248</v>
       </c>
       <c r="M29" s="7">
         <v>51</v>
@@ -6550,13 +6559,13 @@
         <v>54551</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6577,7 +6586,7 @@
         <v>62</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6592,7 +6601,7 @@
         <v>62</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -6607,7 +6616,7 @@
         <v>62</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6663,7 +6672,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6675,13 +6684,13 @@
         <v>169274</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>470</v>
+        <v>370</v>
       </c>
       <c r="H32" s="7">
         <v>126</v>
@@ -6690,13 +6699,13 @@
         <v>139121</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="M32" s="7">
         <v>288</v>
@@ -6705,13 +6714,13 @@
         <v>308395</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6726,13 +6735,13 @@
         <v>274938</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H33" s="7">
         <v>266</v>
@@ -6741,13 +6750,13 @@
         <v>280165</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="M33" s="7">
         <v>540</v>
@@ -6756,13 +6765,13 @@
         <v>555103</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>235</v>
+        <v>479</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6777,13 +6786,13 @@
         <v>290225</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>199</v>
+        <v>482</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H34" s="7">
         <v>341</v>
@@ -6792,13 +6801,13 @@
         <v>369584</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="M34" s="7">
         <v>635</v>
@@ -6810,10 +6819,10 @@
         <v>140</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,13 +6837,13 @@
         <v>145923</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="H35" s="7">
         <v>170</v>
@@ -6843,13 +6852,13 @@
         <v>191973</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>496</v>
       </c>
       <c r="M35" s="7">
         <v>315</v>
@@ -6858,13 +6867,13 @@
         <v>337896</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="P35" s="7" t="s">
-        <v>498</v>
-      </c>
       <c r="Q35" s="7" t="s">
-        <v>499</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6879,13 +6888,13 @@
         <v>33390</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="H36" s="7">
         <v>45</v>
@@ -6894,13 +6903,13 @@
         <v>51339</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>503</v>
+        <v>253</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="M36" s="7">
         <v>78</v>
@@ -6909,13 +6918,13 @@
         <v>84729</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>340</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6951,7 +6960,7 @@
         <v>62</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -7034,13 +7043,13 @@
         <v>564334</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H39" s="7">
         <v>400</v>
@@ -7049,13 +7058,13 @@
         <v>419966</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="M39" s="7">
         <v>922</v>
@@ -7064,13 +7073,13 @@
         <v>984300</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>512</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>514</v>
+        <v>416</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7085,13 +7094,13 @@
         <v>917127</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="H40" s="7">
         <v>911</v>
@@ -7100,13 +7109,13 @@
         <v>964519</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="M40" s="7">
         <v>1785</v>
@@ -7115,13 +7124,13 @@
         <v>1881646</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7136,13 +7145,13 @@
         <v>1145666</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="H41" s="7">
         <v>1185</v>
@@ -7151,13 +7160,13 @@
         <v>1252616</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="M41" s="7">
         <v>2286</v>
@@ -7166,13 +7175,13 @@
         <v>2398282</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7187,13 +7196,13 @@
         <v>563421</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="H42" s="7">
         <v>629</v>
@@ -7202,13 +7211,13 @@
         <v>673212</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>536</v>
+        <v>213</v>
       </c>
       <c r="M42" s="7">
         <v>1165</v>
@@ -7217,13 +7226,13 @@
         <v>1236633</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7238,13 +7247,13 @@
         <v>131296</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>379</v>
+        <v>538</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H43" s="7">
         <v>158</v>
@@ -7253,13 +7262,13 @@
         <v>175967</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="M43" s="7">
         <v>288</v>
@@ -7268,13 +7277,13 @@
         <v>307263</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,7 +7304,7 @@
         <v>62</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -7310,7 +7319,7 @@
         <v>62</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -7325,7 +7334,7 @@
         <v>62</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,7 +7376,7 @@
         <v>6446</v>
       </c>
       <c r="N45" s="7">
-        <v>6808124</v>
+        <v>6808123</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>66</v>
@@ -7381,7 +7390,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -7402,7 +7411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69238A05-C6FB-4127-9902-F35D11F4B9C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F886FB46-2FF7-4AE2-A7DE-1C9F48C26EC1}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7529,7 +7538,7 @@
         <v>547</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>140</v>
+        <v>219</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>548</v>
@@ -7541,13 +7550,13 @@
         <v>40829</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="M4" s="7">
         <v>105</v>
@@ -7556,13 +7565,13 @@
         <v>84313</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7577,10 +7586,10 @@
         <v>29334</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>304</v>
+        <v>553</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>554</v>
@@ -7628,13 +7637,13 @@
         <v>21269</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="H6" s="7">
         <v>56</v>
@@ -7643,13 +7652,13 @@
         <v>27957</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M6" s="7">
         <v>83</v>
@@ -7658,10 +7667,10 @@
         <v>49226</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>566</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>566</v>
+        <v>418</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>567</v>
@@ -7751,7 +7760,7 @@
         <v>580</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>108</v>
+        <v>581</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -7760,13 +7769,13 @@
         <v>6226</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>581</v>
+        <v>463</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>582</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>583</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7781,13 +7790,13 @@
         <v>714</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7802,7 +7811,7 @@
         <v>62</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -7811,13 +7820,13 @@
         <v>714</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>61</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7885,13 +7894,13 @@
         <v>175940</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>135</v>
+        <v>588</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>589</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>590</v>
+        <v>404</v>
       </c>
       <c r="H11" s="7">
         <v>228</v>
@@ -7900,13 +7909,13 @@
         <v>140980</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>591</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>592</v>
       </c>
       <c r="M11" s="7">
         <v>401</v>
@@ -7915,13 +7924,13 @@
         <v>316920</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>594</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>595</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7936,13 +7945,13 @@
         <v>196610</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>596</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>598</v>
       </c>
       <c r="H12" s="7">
         <v>388</v>
@@ -7951,13 +7960,13 @@
         <v>231200</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>601</v>
       </c>
       <c r="M12" s="7">
         <v>606</v>
@@ -7966,13 +7975,13 @@
         <v>427810</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>529</v>
+        <v>601</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>603</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7987,13 +7996,13 @@
         <v>127169</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>85</v>
       </c>
       <c r="H13" s="7">
         <v>277</v>
@@ -8002,13 +8011,13 @@
         <v>159242</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>608</v>
       </c>
       <c r="M13" s="7">
         <v>431</v>
@@ -8017,13 +8026,13 @@
         <v>286411</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8038,13 +8047,13 @@
         <v>36326</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>614</v>
       </c>
       <c r="H14" s="7">
         <v>66</v>
@@ -8053,13 +8062,13 @@
         <v>40174</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>617</v>
       </c>
       <c r="M14" s="7">
         <v>113</v>
@@ -8068,13 +8077,13 @@
         <v>76500</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>618</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8089,13 +8098,13 @@
         <v>9913</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>621</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H15" s="7">
         <v>19</v>
@@ -8125,7 +8134,7 @@
         <v>626</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>501</v>
+        <v>627</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8146,7 +8155,7 @@
         <v>62</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -8155,13 +8164,13 @@
         <v>3238</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>255</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -8170,13 +8179,13 @@
         <v>3238</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>162</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8244,13 +8253,13 @@
         <v>335884</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H18" s="7">
         <v>287</v>
@@ -8259,13 +8268,13 @@
         <v>217255</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M18" s="7">
         <v>545</v>
@@ -8274,13 +8283,13 @@
         <v>553138</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>308</v>
+        <v>639</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>639</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8295,13 +8304,13 @@
         <v>371641</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H19" s="7">
         <v>583</v>
@@ -8310,13 +8319,13 @@
         <v>406509</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>596</v>
+        <v>524</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M19" s="7">
         <v>942</v>
@@ -8325,13 +8334,13 @@
         <v>778150</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8346,13 +8355,13 @@
         <v>245732</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>649</v>
+        <v>197</v>
       </c>
       <c r="H20" s="7">
         <v>443</v>
@@ -8400,10 +8409,10 @@
         <v>656</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>502</v>
+        <v>657</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H21" s="7">
         <v>153</v>
@@ -8412,13 +8421,13 @@
         <v>105755</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>431</v>
+        <v>171</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>659</v>
+        <v>411</v>
       </c>
       <c r="M21" s="7">
         <v>230</v>
@@ -8454,7 +8463,7 @@
         <v>664</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>335</v>
+        <v>665</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -8463,13 +8472,13 @@
         <v>17941</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M22" s="7">
         <v>42</v>
@@ -8478,10 +8487,10 @@
         <v>27375</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>668</v>
+        <v>626</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>663</v>
+        <v>569</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>669</v>
@@ -8505,7 +8514,7 @@
         <v>61</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>569</v>
+        <v>671</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -8517,10 +8526,10 @@
         <v>670</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -8532,7 +8541,7 @@
         <v>670</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>672</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>673</v>
@@ -8606,10 +8615,10 @@
         <v>674</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>173</v>
+        <v>675</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H25" s="7">
         <v>232</v>
@@ -8618,13 +8627,13 @@
         <v>161183</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="M25" s="7">
         <v>410</v>
@@ -8633,13 +8642,13 @@
         <v>349698</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>376</v>
+        <v>681</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8654,13 +8663,13 @@
         <v>248660</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>552</v>
+        <v>683</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>681</v>
+        <v>362</v>
       </c>
       <c r="H26" s="7">
         <v>319</v>
@@ -8672,10 +8681,10 @@
         <v>437</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="M26" s="7">
         <v>545</v>
@@ -8684,13 +8693,13 @@
         <v>495311</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8705,13 +8714,13 @@
         <v>201710</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>687</v>
+        <v>38</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>647</v>
+        <v>689</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="H27" s="7">
         <v>265</v>
@@ -8720,13 +8729,13 @@
         <v>306319</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>690</v>
+        <v>99</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="M27" s="7">
         <v>454</v>
@@ -8735,13 +8744,13 @@
         <v>508029</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>141</v>
+        <v>693</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>651</v>
+        <v>694</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8756,13 +8765,13 @@
         <v>69564</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>695</v>
+        <v>238</v>
       </c>
       <c r="H28" s="7">
         <v>179</v>
@@ -8771,13 +8780,13 @@
         <v>122034</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>697</v>
+        <v>27</v>
       </c>
       <c r="M28" s="7">
         <v>242</v>
@@ -8786,7 +8795,7 @@
         <v>191599</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>698</v>
+        <v>350</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>699</v>
@@ -8810,10 +8819,10 @@
         <v>701</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>668</v>
+        <v>702</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>702</v>
+        <v>544</v>
       </c>
       <c r="H29" s="7">
         <v>49</v>
@@ -8837,13 +8846,13 @@
         <v>53302</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>420</v>
+        <v>706</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8858,13 +8867,13 @@
         <v>3689</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>671</v>
+        <v>709</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -8873,13 +8882,13 @@
         <v>727</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>672</v>
+        <v>712</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>61</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
@@ -8888,13 +8897,13 @@
         <v>4416</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>162</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8950,7 +8959,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8962,13 +8971,13 @@
         <v>250843</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>89</v>
+        <v>717</v>
       </c>
       <c r="H32" s="7">
         <v>282</v>
@@ -8977,13 +8986,13 @@
         <v>200665</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="M32" s="7">
         <v>531</v>
@@ -8992,13 +9001,13 @@
         <v>451508</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9013,13 +9022,13 @@
         <v>353294</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="H33" s="7">
         <v>525</v>
@@ -9028,13 +9037,13 @@
         <v>382939</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="M33" s="7">
         <v>887</v>
@@ -9043,13 +9052,13 @@
         <v>736234</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>726</v>
+        <v>236</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>727</v>
+        <v>404</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9064,13 +9073,13 @@
         <v>256627</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>730</v>
+        <v>185</v>
       </c>
       <c r="H34" s="7">
         <v>473</v>
@@ -9079,13 +9088,13 @@
         <v>352469</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="M34" s="7">
         <v>747</v>
@@ -9094,13 +9103,13 @@
         <v>609096</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>223</v>
+        <v>736</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9115,13 +9124,13 @@
         <v>78691</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>737</v>
+        <v>199</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H35" s="7">
         <v>214</v>
@@ -9130,13 +9139,13 @@
         <v>168013</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="M35" s="7">
         <v>305</v>
@@ -9145,13 +9154,13 @@
         <v>246704</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>73</v>
+        <v>743</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9166,13 +9175,13 @@
         <v>19636</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>623</v>
+        <v>747</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="H36" s="7">
         <v>57</v>
@@ -9181,13 +9190,13 @@
         <v>39359</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="M36" s="7">
         <v>79</v>
@@ -9196,13 +9205,13 @@
         <v>58996</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9217,13 +9226,13 @@
         <v>3014</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>753</v>
+        <v>585</v>
       </c>
       <c r="H37" s="7">
         <v>8</v>
@@ -9232,13 +9241,13 @@
         <v>5422</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>255</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="M37" s="7">
         <v>12</v>
@@ -9247,13 +9256,13 @@
         <v>8436</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>425</v>
+        <v>255</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>584</v>
+        <v>759</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9295,7 +9304,7 @@
         <v>2561</v>
       </c>
       <c r="N38" s="7">
-        <v>2110973</v>
+        <v>2110974</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>66</v>
@@ -9321,13 +9330,13 @@
         <v>994666</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="H39" s="7">
         <v>1088</v>
@@ -9336,13 +9345,13 @@
         <v>760911</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="M39" s="7">
         <v>1992</v>
@@ -9351,13 +9360,13 @@
         <v>1755577</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>441</v>
+        <v>766</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>127</v>
+        <v>639</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -9372,13 +9381,13 @@
         <v>1199539</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>765</v>
+        <v>726</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="H40" s="7">
         <v>1892</v>
@@ -9387,13 +9396,13 @@
         <v>1305265</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="M40" s="7">
         <v>3091</v>
@@ -9402,13 +9411,13 @@
         <v>2504804</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>86</v>
+        <v>773</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9423,13 +9432,13 @@
         <v>852507</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>772</v>
+        <v>439</v>
       </c>
       <c r="H41" s="7">
         <v>1514</v>
@@ -9438,13 +9447,13 @@
         <v>1143835</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>773</v>
+        <v>478</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="M41" s="7">
         <v>2410</v>
@@ -9453,13 +9462,13 @@
         <v>1996342</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9474,13 +9483,13 @@
         <v>257428</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>612</v>
+        <v>781</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="H42" s="7">
         <v>647</v>
@@ -9489,13 +9498,13 @@
         <v>452580</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>698</v>
+        <v>350</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="M42" s="7">
         <v>929</v>
@@ -9504,13 +9513,13 @@
         <v>710008</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>783</v>
+        <v>71</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9525,13 +9534,13 @@
         <v>57195</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>709</v>
+        <v>788</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="H43" s="7">
         <v>164</v>
@@ -9540,13 +9549,13 @@
         <v>110383</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>423</v>
+        <v>792</v>
       </c>
       <c r="M43" s="7">
         <v>232</v>
@@ -9555,13 +9564,13 @@
         <v>167578</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>790</v>
+        <v>746</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9576,13 +9585,13 @@
         <v>9797</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="H44" s="7">
         <v>18</v>
@@ -9591,13 +9600,13 @@
         <v>11802</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="M44" s="7">
         <v>29</v>
@@ -9606,10 +9615,10 @@
         <v>21599</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>161</v>
+        <v>427</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>578</v>
@@ -9668,7 +9677,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
